--- a/report_deposit.xlsx
+++ b/report_deposit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -50,64 +50,31 @@
     <t>สถานะ</t>
   </si>
   <si>
-    <t>TTB</t>
-  </si>
-  <si>
-    <t>0614247897</t>
-  </si>
-  <si>
-    <t>30/10/2021 13:49</t>
+    <t>KBANK</t>
+  </si>
+  <si>
+    <t>0980173318</t>
+  </si>
+  <si>
+    <t>24/11/2021 11:19</t>
+  </si>
+  <si>
+    <t>14/10/2021 16:22</t>
+  </si>
+  <si>
+    <t>test03@12iwinr</t>
+  </si>
+  <si>
+    <t>0874771650</t>
+  </si>
+  <si>
+    <t>24/11/2021 09:25</t>
   </si>
   <si>
     <t>AUTO</t>
   </si>
   <si>
-    <t>KBANK</t>
-  </si>
-  <si>
-    <t>0847485261</t>
-  </si>
-  <si>
-    <t>30/10/2021 13:00</t>
-  </si>
-  <si>
-    <t>30/10/2021 12:59</t>
-  </si>
-  <si>
-    <t>0984149699</t>
-  </si>
-  <si>
-    <t>29/10/2021 15:45</t>
-  </si>
-  <si>
-    <t>28/10/2021 10:26</t>
-  </si>
-  <si>
-    <t>xxx111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  K</t>
-  </si>
-  <si>
-    <t>0612092456</t>
-  </si>
-  <si>
-    <t>28/10/2021 10:18</t>
-  </si>
-  <si>
-    <t>28/10/2021 10:17</t>
-  </si>
-  <si>
-    <t>day12</t>
-  </si>
-  <si>
-    <t>KTB</t>
-  </si>
-  <si>
-    <t>28/10/2021 09:53</t>
-  </si>
-  <si>
-    <t>28/10/2021 09:51</t>
+    <t>24/11/2021 08:44</t>
   </si>
 </sst>
 </file>
@@ -446,7 +413,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +458,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -500,25 +467,25 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>14.81</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>35.81</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -526,34 +493,34 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>20</v>
+        <v>21.1</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -561,106 +528,36 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.01</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6">
         <v>2</v>
       </c>
     </row>
